--- a/Unknown_Platypus/SkillTable.xlsx
+++ b/Unknown_Platypus/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\platypus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADCC252-FF37-432D-ADC7-484F2BD16576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F085ED-CA16-49DC-8D95-DDE13CB209F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35115" yWindow="4560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="163">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -673,6 +673,10 @@
   </si>
   <si>
     <t>20001, 20017, 20021, 20051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movespeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1233,7 +1237,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1743,9 +1747,6 @@
       <c r="W6" s="3">
         <v>0</v>
       </c>
-      <c r="AH6" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="7" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -2110,9 +2111,6 @@
       <c r="W11" s="3">
         <v>0</v>
       </c>
-      <c r="AH11" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="12" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -2184,6 +2182,15 @@
       <c r="W12" s="3">
         <v>0</v>
       </c>
+      <c r="Y12" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -2477,9 +2484,7 @@
       <c r="W16" s="3">
         <v>0</v>
       </c>
-      <c r="AH16" t="s">
-        <v>148</v>
-      </c>
+      <c r="AH16"/>
     </row>
     <row r="17" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -2844,9 +2849,7 @@
       <c r="W21" s="3">
         <v>0</v>
       </c>
-      <c r="AH21" t="s">
-        <v>151</v>
-      </c>
+      <c r="AH21"/>
     </row>
     <row r="22" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -3212,9 +3215,7 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-      <c r="AH26" t="s">
-        <v>149</v>
-      </c>
+      <c r="AH26"/>
     </row>
     <row r="27" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -3580,9 +3581,7 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-      <c r="AH31" t="s">
-        <v>150</v>
-      </c>
+      <c r="AH31"/>
     </row>
     <row r="32" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
@@ -3948,9 +3947,7 @@
       <c r="W36" s="3">
         <v>0</v>
       </c>
-      <c r="AH36" t="s">
-        <v>152</v>
-      </c>
+      <c r="AH36"/>
     </row>
     <row r="37" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
@@ -4316,9 +4313,7 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-      <c r="AH41" t="s">
-        <v>154</v>
-      </c>
+      <c r="AH41"/>
     </row>
     <row r="42" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
@@ -4684,9 +4679,7 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-      <c r="AH46" t="s">
-        <v>155</v>
-      </c>
+      <c r="AH46"/>
     </row>
     <row r="47" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
@@ -5052,9 +5045,7 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-      <c r="AH51" t="s">
-        <v>156</v>
-      </c>
+      <c r="AH51"/>
     </row>
     <row r="52" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
@@ -5420,9 +5411,7 @@
       <c r="W56" s="3">
         <v>0</v>
       </c>
-      <c r="AH56" t="s">
-        <v>157</v>
-      </c>
+      <c r="AH56"/>
     </row>
     <row r="57" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
@@ -5788,9 +5777,7 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-      <c r="AH61" t="s">
-        <v>158</v>
-      </c>
+      <c r="AH61"/>
     </row>
     <row r="62" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
@@ -6156,9 +6143,7 @@
       <c r="W66" s="3">
         <v>0</v>
       </c>
-      <c r="AH66" t="s">
-        <v>153</v>
-      </c>
+      <c r="AH66"/>
     </row>
     <row r="67" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
@@ -6524,9 +6509,7 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-      <c r="AH71" t="s">
-        <v>161</v>
-      </c>
+      <c r="AH71"/>
     </row>
     <row r="72" spans="1:34" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
@@ -6892,9 +6875,7 @@
       <c r="W76" s="3">
         <v>0</v>
       </c>
-      <c r="AH76" t="s">
-        <v>159</v>
-      </c>
+      <c r="AH76"/>
     </row>
     <row r="77" spans="1:34" s="14" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
@@ -7260,9 +7241,7 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-      <c r="AH81" t="s">
-        <v>160</v>
-      </c>
+      <c r="AH81"/>
     </row>
     <row r="82" spans="1:34" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
@@ -7335,8 +7314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C4:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
